--- a/etc/SiriusAmbTempPVs.xlsx
+++ b/etc/SiriusAmbTempPVs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cnpemcamp-my.sharepoint.com/personal/rafael_cardoso_cnpem_br/Documents/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36F96D9F-F243-4FF0-BDC5-22137E98AD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFBC373-D350-4955-B1C4-7184C2A17B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{CC45857C-43CA-4FE8-B43A-A3E2BD5298BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{CC45857C-43CA-4FE8-B43A-A3E2BD5298BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hall" sheetId="5" r:id="rId1"/>
@@ -891,7 +891,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -929,6 +929,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1203,7 +1210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1326,6 +1333,9 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2107,13 +2117,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2137,6 +2140,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2187,7 +2197,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D263FF3D-D05F-4938-990D-390430C37893}" name="Table1275" displayName="Table1275" ref="A1:T81" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D263FF3D-D05F-4938-990D-390430C37893}" name="Table1275" displayName="Table1275" ref="A1:T81" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21">
   <autoFilter ref="A1:T81" xr:uid="{D263FF3D-D05F-4938-990D-390430C37893}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T2">
     <sortCondition ref="I2"/>
@@ -2224,7 +2234,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2526,7 +2536,7 @@
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="73.140625" style="20" customWidth="1"/>
@@ -2552,7 +2562,7 @@
     <col min="22" max="22" width="51.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1">
+    <row r="1" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2617,7 +2627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="15" customFormat="1">
+    <row r="2" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -2675,7 +2685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -2733,7 +2743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -2791,7 +2801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -2849,7 +2859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -2909,7 +2919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -2969,7 +2979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -3027,7 +3037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -3085,7 +3095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -3145,7 +3155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -3203,7 +3213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -3261,7 +3271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -3319,7 +3329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -3379,7 +3389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -3439,7 +3449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -3497,7 +3507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -3557,7 +3567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -3615,7 +3625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -3673,7 +3683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -3731,7 +3741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -3789,7 +3799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -3849,7 +3859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -3909,7 +3919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -3967,7 +3977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -4025,7 +4035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -4083,7 +4093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -4141,7 +4151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -4201,7 +4211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -4261,7 +4271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -4321,7 +4331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -4381,7 +4391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -4439,7 +4449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -4497,7 +4507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -4555,7 +4565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -4613,7 +4623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -4671,7 +4681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -4729,7 +4739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -4789,7 +4799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -4849,7 +4859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="30">
+    <row r="40" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -4909,7 +4919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="30">
+    <row r="41" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -4969,7 +4979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -5027,7 +5037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -5085,7 +5095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>43</v>
       </c>
@@ -5143,7 +5153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -5201,7 +5211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>45</v>
       </c>
@@ -5261,7 +5271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -5321,7 +5331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>47</v>
       </c>
@@ -5381,7 +5391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -5441,7 +5451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>49</v>
       </c>
@@ -5499,7 +5509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -5559,7 +5569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>51</v>
       </c>
@@ -5617,7 +5627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>52</v>
       </c>
@@ -5675,7 +5685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>53</v>
       </c>
@@ -5735,7 +5745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -5795,7 +5805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>55</v>
       </c>
@@ -5855,7 +5865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>56</v>
       </c>
@@ -5915,7 +5925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>57</v>
       </c>
@@ -5973,7 +5983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>58</v>
       </c>
@@ -6031,7 +6041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>59</v>
       </c>
@@ -6089,7 +6099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -6147,7 +6157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>61</v>
       </c>
@@ -6207,7 +6217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="30">
+    <row r="63" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -6267,7 +6277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>63</v>
       </c>
@@ -6325,7 +6335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -6385,7 +6395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>65</v>
       </c>
@@ -6443,7 +6453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>66</v>
       </c>
@@ -6501,7 +6511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>67</v>
       </c>
@@ -6559,7 +6569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>68</v>
       </c>
@@ -6617,7 +6627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>69</v>
       </c>
@@ -6677,7 +6687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>70</v>
       </c>
@@ -6737,7 +6747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>71</v>
       </c>
@@ -6795,7 +6805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>72</v>
       </c>
@@ -6853,7 +6863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>73</v>
       </c>
@@ -6911,7 +6921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>74</v>
       </c>
@@ -6969,7 +6979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>75</v>
       </c>
@@ -7027,7 +7037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>76</v>
       </c>
@@ -7085,7 +7095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>77</v>
       </c>
@@ -7145,7 +7155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>78</v>
       </c>
@@ -7205,7 +7215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>79</v>
       </c>
@@ -7263,7 +7273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>80</v>
       </c>
@@ -7337,11 +7347,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC98F7D-7F2B-4614-9245-C95CA7A32884}">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:T25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
@@ -7365,7 +7375,7 @@
     <col min="22" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1">
+    <row r="1" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7430,7 +7440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="15" customFormat="1">
+    <row r="2" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -7484,11 +7494,9 @@
       <c r="S2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="T2" s="11"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -7542,11 +7550,9 @@
       <c r="S3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="T3" s="11"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -7600,11 +7606,9 @@
       <c r="S4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="T4" s="11"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -7658,11 +7662,9 @@
       <c r="S5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="30.75">
+      <c r="T5" s="11"/>
+    </row>
+    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -7718,11 +7720,9 @@
       <c r="S6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="30.75">
+      <c r="T6" s="11"/>
+    </row>
+    <row r="7" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -7778,11 +7778,9 @@
       <c r="S7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T7" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -7836,11 +7834,9 @@
       <c r="S8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -7894,11 +7890,9 @@
       <c r="S9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T9" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>65</v>
       </c>
@@ -7952,11 +7946,9 @@
       <c r="S10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T10" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>66</v>
       </c>
@@ -8010,11 +8002,9 @@
       <c r="S11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T11" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>67</v>
       </c>
@@ -8068,11 +8058,9 @@
       <c r="S12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T12" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="T12" s="11"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>68</v>
       </c>
@@ -8126,11 +8114,9 @@
       <c r="S13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T13" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="30.75">
+      <c r="T13" s="11"/>
+    </row>
+    <row r="14" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>69</v>
       </c>
@@ -8186,11 +8172,9 @@
       <c r="S14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T14" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="30.75">
+      <c r="T14" s="11"/>
+    </row>
+    <row r="15" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>70</v>
       </c>
@@ -8246,11 +8230,9 @@
       <c r="S15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T15" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="T15" s="11"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>71</v>
       </c>
@@ -8304,11 +8286,9 @@
       <c r="S16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T16" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="T16" s="11"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>72</v>
       </c>
@@ -8362,11 +8342,9 @@
       <c r="S17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T17" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="T17" s="11"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>73</v>
       </c>
@@ -8420,11 +8398,9 @@
       <c r="S18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T18" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="T18" s="11"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>74</v>
       </c>
@@ -8478,11 +8454,9 @@
       <c r="S19" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T19" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="T19" s="11"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>75</v>
       </c>
@@ -8536,11 +8510,9 @@
       <c r="S20" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T20" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="T20" s="11"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>76</v>
       </c>
@@ -8594,11 +8566,9 @@
       <c r="S21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T21" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="30.75">
+      <c r="T21" s="11"/>
+    </row>
+    <row r="22" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>77</v>
       </c>
@@ -8654,11 +8624,9 @@
       <c r="S22" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T22" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="30.75">
+      <c r="T22" s="11"/>
+    </row>
+    <row r="23" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>78</v>
       </c>
@@ -8714,11 +8682,9 @@
       <c r="S23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T23" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="T23" s="11"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>79</v>
       </c>
@@ -8772,11 +8738,9 @@
       <c r="S24" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T24" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="30.75">
+      <c r="T24" s="11"/>
+    </row>
+    <row r="25" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>80</v>
       </c>
@@ -8832,9 +8796,7 @@
       <c r="S25" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T25" s="11">
-        <v>5</v>
-      </c>
+      <c r="T25" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8846,10 +8808,10 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD33"/>
+      <selection activeCell="T2" sqref="T2:T33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
@@ -8872,7 +8834,7 @@
     <col min="22" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1">
+    <row r="1" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8937,7 +8899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>9</v>
       </c>
@@ -8993,11 +8955,9 @@
       <c r="S2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="T2" s="11"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>10</v>
       </c>
@@ -9051,11 +9011,9 @@
       <c r="S3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="T3" s="11"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>11</v>
       </c>
@@ -9109,11 +9067,9 @@
       <c r="S4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="T4" s="11"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>12</v>
       </c>
@@ -9167,11 +9123,9 @@
       <c r="S5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="T5" s="11"/>
+    </row>
+    <row r="6" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>13</v>
       </c>
@@ -9227,11 +9181,9 @@
       <c r="S6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="T6" s="11"/>
+    </row>
+    <row r="7" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>14</v>
       </c>
@@ -9287,11 +9239,9 @@
       <c r="S7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T7" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>15</v>
       </c>
@@ -9345,11 +9295,9 @@
       <c r="S8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>16</v>
       </c>
@@ -9405,11 +9353,9 @@
       <c r="S9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T9" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>17</v>
       </c>
@@ -9463,11 +9409,9 @@
       <c r="S10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T10" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>18</v>
       </c>
@@ -9521,11 +9465,9 @@
       <c r="S11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T11" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>19</v>
       </c>
@@ -9579,11 +9521,9 @@
       <c r="S12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T12" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="T12" s="11"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>20</v>
       </c>
@@ -9637,11 +9577,9 @@
       <c r="S13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T13" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="T13" s="11"/>
+    </row>
+    <row r="14" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>21</v>
       </c>
@@ -9697,11 +9635,9 @@
       <c r="S14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T14" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="T14" s="11"/>
+    </row>
+    <row r="15" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>22</v>
       </c>
@@ -9757,11 +9693,9 @@
       <c r="S15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T15" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="T15" s="11"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>23</v>
       </c>
@@ -9815,11 +9749,9 @@
       <c r="S16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T16" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="T16" s="11"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>24</v>
       </c>
@@ -9873,11 +9805,9 @@
       <c r="S17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T17" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="T17" s="11"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>25</v>
       </c>
@@ -9931,11 +9861,9 @@
       <c r="S18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T18" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="T18" s="11"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>26</v>
       </c>
@@ -9989,11 +9917,9 @@
       <c r="S19" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T19" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="T19" s="11"/>
+    </row>
+    <row r="20" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>27</v>
       </c>
@@ -10049,11 +9975,9 @@
       <c r="S20" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T20" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="T20" s="11"/>
+    </row>
+    <row r="21" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>28</v>
       </c>
@@ -10109,11 +10033,9 @@
       <c r="S21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T21" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="T21" s="11"/>
+    </row>
+    <row r="22" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>29</v>
       </c>
@@ -10169,11 +10091,9 @@
       <c r="S22" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T22" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="T22" s="11"/>
+    </row>
+    <row r="23" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>30</v>
       </c>
@@ -10229,11 +10149,9 @@
       <c r="S23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T23" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="T23" s="11"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>31</v>
       </c>
@@ -10287,11 +10205,9 @@
       <c r="S24" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T24" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="T24" s="11"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>32</v>
       </c>
@@ -10345,11 +10261,9 @@
       <c r="S25" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T25" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="T25" s="11"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>33</v>
       </c>
@@ -10403,11 +10317,9 @@
       <c r="S26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T26" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="T26" s="11"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>34</v>
       </c>
@@ -10461,11 +10373,9 @@
       <c r="S27" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T27" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="T27" s="11"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>35</v>
       </c>
@@ -10519,11 +10429,9 @@
       <c r="S28" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T28" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="T28" s="11"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>36</v>
       </c>
@@ -10577,11 +10485,9 @@
       <c r="S29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T29" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="T29" s="11"/>
+    </row>
+    <row r="30" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>37</v>
       </c>
@@ -10637,11 +10543,9 @@
       <c r="S30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T30" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="T30" s="11"/>
+    </row>
+    <row r="31" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>38</v>
       </c>
@@ -10697,11 +10601,9 @@
       <c r="S31" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T31" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="30">
+      <c r="T31" s="11"/>
+    </row>
+    <row r="32" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>39</v>
       </c>
@@ -10757,11 +10659,9 @@
       <c r="S32" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T32" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="30">
+      <c r="T32" s="11"/>
+    </row>
+    <row r="33" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>40</v>
       </c>
@@ -10817,9 +10717,7 @@
       <c r="S33" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T33" s="11">
-        <v>5</v>
-      </c>
+      <c r="T33" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10830,11 +10728,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C5E429-E963-4A01-A471-5D4A1C2D01BD}">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
@@ -10858,7 +10756,7 @@
     <col min="22" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1">
+    <row r="1" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10923,7 +10821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>41</v>
       </c>
@@ -10977,11 +10875,9 @@
       <c r="S2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="T2" s="43"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>42</v>
       </c>
@@ -11035,11 +10931,9 @@
       <c r="S3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="T3" s="43"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>43</v>
       </c>
@@ -11093,11 +10987,9 @@
       <c r="S4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="T4" s="43"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>44</v>
       </c>
@@ -11151,11 +11043,9 @@
       <c r="S5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="T5" s="43"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>45</v>
       </c>
@@ -11211,11 +11101,9 @@
       <c r="S6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="T6" s="43"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>46</v>
       </c>
@@ -11271,11 +11159,9 @@
       <c r="S7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T7" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="T7" s="43"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>47</v>
       </c>
@@ -11331,11 +11217,9 @@
       <c r="S8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="T8" s="43"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>48</v>
       </c>
@@ -11391,11 +11275,9 @@
       <c r="S9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T9" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="T9" s="43"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>49</v>
       </c>
@@ -11449,11 +11331,9 @@
       <c r="S10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T10" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="T10" s="43"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>50</v>
       </c>
@@ -11509,11 +11389,9 @@
       <c r="S11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T11" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="T11" s="43"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>51</v>
       </c>
@@ -11567,11 +11445,9 @@
       <c r="S12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T12" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="T12" s="43"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>52</v>
       </c>
@@ -11625,11 +11501,9 @@
       <c r="S13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T13" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="T13" s="43"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>53</v>
       </c>
@@ -11685,11 +11559,9 @@
       <c r="S14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T14" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="T14" s="43"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>54</v>
       </c>
@@ -11745,11 +11617,9 @@
       <c r="S15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T15" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="T15" s="43"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>55</v>
       </c>
@@ -11805,11 +11675,9 @@
       <c r="S16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T16" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="T16" s="43"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>56</v>
       </c>
@@ -11865,12 +11733,11 @@
       <c r="S17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T17" s="11">
-        <v>5</v>
-      </c>
+      <c r="T17" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12118,15 +11985,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="ed202a06-a5fd-4989-ab35-516afb994abd">
@@ -12145,14 +12003,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37CAFCCB-79BC-46EE-B295-ED437D5AD1F9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37CAFCCB-79BC-46EE-B295-ED437D5AD1F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b2c2e3a4-82bc-4b14-ba75-76c6e4b67a60"/>
+    <ds:schemaRef ds:uri="ed202a06-a5fd-4989-ab35-516afb994abd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{372605BC-1AB9-4D2C-BBC5-3A46966356DD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73AECD0-D97F-4072-8B5A-ACBE5E9143A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ed202a06-a5fd-4989-ab35-516afb994abd"/>
+    <ds:schemaRef ds:uri="b2c2e3a4-82bc-4b14-ba75-76c6e4b67a60"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73AECD0-D97F-4072-8B5A-ACBE5E9143A8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{372605BC-1AB9-4D2C-BBC5-3A46966356DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/etc/SiriusAmbTempPVs.xlsx
+++ b/etc/SiriusAmbTempPVs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cnpemcamp.sharepoint.com/sites/GrupoAutomaoeSoftware/Documentos Compartilhados/Estabilidade do Feixe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D81EA5B-80E5-4B8E-868A-A2DB226221B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D77AEDA-883D-48F9-B084-CCD6C476F068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="4" xr2:uid="{CC45857C-43CA-4FE8-B43A-A3E2BD5298BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{CC45857C-43CA-4FE8-B43A-A3E2BD5298BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hall" sheetId="5" r:id="rId1"/>
@@ -2625,7 +2625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3316,13 +3316,16 @@
     <xf numFmtId="0" fontId="7" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="37" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="37" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -14759,8 +14762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC98F7D-7F2B-4614-9245-C95CA7A32884}">
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16562,8 +16565,8 @@
         <v>27</v>
       </c>
       <c r="J29" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-39IW:AC-PT100-:Temperature-Mon</v>
+        <f>IF(G29="-",C29&amp;"-"&amp;D29&amp;":"&amp;E29&amp;"-"&amp;F29&amp;":"&amp;H29&amp;"-"&amp;I29,C29&amp;"-"&amp;D29&amp;":"&amp;E29&amp;"-"&amp;F29&amp;G29&amp;":"&amp;H29&amp;"-"&amp;I29)</f>
+        <v>TU-39IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="K29" s="159" t="s">
         <v>411</v>
@@ -16624,14 +16627,14 @@
         <v>27</v>
       </c>
       <c r="J30" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-40EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" ref="J30:J55" si="1">IF(G30="-",C30&amp;"-"&amp;D30&amp;":"&amp;E30&amp;"-"&amp;F30&amp;":"&amp;H30&amp;"-"&amp;I30,C30&amp;"-"&amp;D30&amp;":"&amp;E30&amp;"-"&amp;F30&amp;G30&amp;":"&amp;H30&amp;"-"&amp;I30)</f>
+        <v>TU-40EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="K30" s="159" t="s">
         <v>413</v>
       </c>
       <c r="L30" s="129" t="str">
-        <f t="shared" ref="L30:L35" si="1">K30&amp;"_ST_614_"&amp;MID($B30,8,2)&amp;"_"&amp;IF(MID($B30,11,1)="0", MID($B30,12,1), MID($B30,11,2))&amp;".val"</f>
+        <f t="shared" ref="L30:L35" si="2">K30&amp;"_ST_614_"&amp;MID($B30,8,2)&amp;"_"&amp;IF(MID($B30,11,1)="0", MID($B30,12,1), MID($B30,11,2))&amp;".val"</f>
         <v>TEAMB02_ST_614_17_2.val</v>
       </c>
       <c r="M30" s="130" t="s">
@@ -16649,7 +16652,7 @@
         <v>31</v>
       </c>
       <c r="S30" s="132" t="str">
-        <f t="shared" ref="S30:S54" si="2">L30</f>
+        <f t="shared" ref="S30:S54" si="3">L30</f>
         <v>TEAMB02_ST_614_17_2.val</v>
       </c>
       <c r="T30" s="128" t="s">
@@ -16686,14 +16689,14 @@
         <v>27</v>
       </c>
       <c r="J31" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-41IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-41IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="K31" s="159" t="s">
         <v>415</v>
       </c>
       <c r="L31" s="129" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB03_ST_614_17_4.val</v>
       </c>
       <c r="M31" s="130" t="s">
@@ -16711,7 +16714,7 @@
         <v>31</v>
       </c>
       <c r="S31" s="132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB03_ST_614_17_4.val</v>
       </c>
       <c r="T31" s="128" t="s">
@@ -16748,14 +16751,14 @@
         <v>27</v>
       </c>
       <c r="J32" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-41EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-41EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="K32" s="159" t="s">
         <v>417</v>
       </c>
       <c r="L32" s="129" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB04_ST_614_17_5.val</v>
       </c>
       <c r="M32" s="130" t="s">
@@ -16773,7 +16776,7 @@
         <v>31</v>
       </c>
       <c r="S32" s="132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB04_ST_614_17_5.val</v>
       </c>
       <c r="T32" s="128" t="s">
@@ -16810,14 +16813,14 @@
         <v>27</v>
       </c>
       <c r="J33" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-42IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-42IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="K33" s="159" t="s">
         <v>419</v>
       </c>
       <c r="L33" s="129" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB05_ST_614_17_7.val</v>
       </c>
       <c r="M33" s="130" t="s">
@@ -16835,7 +16838,7 @@
         <v>31</v>
       </c>
       <c r="S33" s="132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB05_ST_614_17_7.val</v>
       </c>
       <c r="T33" s="128" t="s">
@@ -16872,14 +16875,14 @@
         <v>27</v>
       </c>
       <c r="J34" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-43EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-43EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="K34" s="159" t="s">
         <v>421</v>
       </c>
       <c r="L34" s="129" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB06_ST_614_17_8.val</v>
       </c>
       <c r="M34" s="130" t="s">
@@ -16897,7 +16900,7 @@
         <v>31</v>
       </c>
       <c r="S34" s="132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB06_ST_614_17_8.val</v>
       </c>
       <c r="T34" s="128" t="s">
@@ -16934,14 +16937,14 @@
         <v>27</v>
       </c>
       <c r="J35" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-44IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-44IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="K35" s="159" t="s">
         <v>423</v>
       </c>
       <c r="L35" s="129" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB07_ST_614_17_9.val</v>
       </c>
       <c r="M35" s="130" t="s">
@@ -16959,7 +16962,7 @@
         <v>31</v>
       </c>
       <c r="S35" s="132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB07_ST_614_17_9.val</v>
       </c>
       <c r="T35" s="128" t="s">
@@ -16996,8 +16999,8 @@
         <v>27</v>
       </c>
       <c r="J36" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-44EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-44EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="K36" s="159" t="s">
         <v>425</v>
@@ -17056,8 +17059,8 @@
         <v>27</v>
       </c>
       <c r="J37" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-3944:AC-PT101-:MeanTemperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-3944:AC-PT101:MeanTemperature-Mon</v>
       </c>
       <c r="K37" s="159"/>
       <c r="L37" s="129" t="s">
@@ -17113,8 +17116,8 @@
         <v>27</v>
       </c>
       <c r="J38" s="221" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-45IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-45IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="K38" s="159" t="s">
         <v>411</v>
@@ -17138,7 +17141,7 @@
         <v>31</v>
       </c>
       <c r="S38" s="138" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB01_ST_614_19_1.val</v>
       </c>
       <c r="T38" s="134" t="s">
@@ -17175,14 +17178,14 @@
         <v>27</v>
       </c>
       <c r="J39" s="221" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-46EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-46EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="K39" s="159" t="s">
         <v>413</v>
       </c>
       <c r="L39" s="135" t="str">
-        <f t="shared" ref="L39:L45" si="3">K39&amp;"_ST_614_"&amp;MID($B39,8,2)&amp;"_"&amp;IF(MID($B39,11,1)="0", MID($B39,12,1), MID($B39,11,2))&amp;".val"</f>
+        <f t="shared" ref="L39:L45" si="4">K39&amp;"_ST_614_"&amp;MID($B39,8,2)&amp;"_"&amp;IF(MID($B39,11,1)="0", MID($B39,12,1), MID($B39,11,2))&amp;".val"</f>
         <v>TEAMB02_ST_614_19_2.val</v>
       </c>
       <c r="M39" s="136" t="s">
@@ -17200,7 +17203,7 @@
         <v>31</v>
       </c>
       <c r="S39" s="138" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB02_ST_614_19_2.val</v>
       </c>
       <c r="T39" s="134" t="s">
@@ -17237,14 +17240,14 @@
         <v>27</v>
       </c>
       <c r="J40" s="221" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-47IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-47IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="K40" s="159" t="s">
         <v>415</v>
       </c>
       <c r="L40" s="135" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>TEAMB03_ST_614_19_4.val</v>
       </c>
       <c r="M40" s="136" t="s">
@@ -17262,7 +17265,7 @@
         <v>31</v>
       </c>
       <c r="S40" s="138" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB03_ST_614_19_4.val</v>
       </c>
       <c r="T40" s="134" t="s">
@@ -17299,14 +17302,14 @@
         <v>27</v>
       </c>
       <c r="J41" s="221" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-47EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-47EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="K41" s="159" t="s">
         <v>417</v>
       </c>
       <c r="L41" s="135" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>TEAMB04_ST_614_19_5.val</v>
       </c>
       <c r="M41" s="136" t="s">
@@ -17324,7 +17327,7 @@
         <v>31</v>
       </c>
       <c r="S41" s="138" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB04_ST_614_19_5.val</v>
       </c>
       <c r="T41" s="134" t="s">
@@ -17361,14 +17364,14 @@
         <v>27</v>
       </c>
       <c r="J42" s="221" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-48IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-48IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="K42" s="159" t="s">
         <v>419</v>
       </c>
       <c r="L42" s="135" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>TEAMB05_ST_614_19_7.val</v>
       </c>
       <c r="M42" s="136" t="s">
@@ -17386,7 +17389,7 @@
         <v>31</v>
       </c>
       <c r="S42" s="138" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB05_ST_614_19_7.val</v>
       </c>
       <c r="T42" s="134" t="s">
@@ -17415,7 +17418,7 @@
       <c r="F43" s="210" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="214"/>
+      <c r="G43" s="235"/>
       <c r="H43" s="160" t="s">
         <v>26</v>
       </c>
@@ -17423,14 +17426,14 @@
         <v>27</v>
       </c>
       <c r="J43" s="221" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-49EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-49EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="K43" s="159" t="s">
         <v>421</v>
       </c>
       <c r="L43" s="135" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>TEAMB06_ST_614_19_8.val</v>
       </c>
       <c r="M43" s="136" t="s">
@@ -17448,7 +17451,7 @@
         <v>31</v>
       </c>
       <c r="S43" s="138" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB06_ST_614_19_8.val</v>
       </c>
       <c r="T43" s="134" t="s">
@@ -17485,14 +17488,14 @@
         <v>27</v>
       </c>
       <c r="J44" s="221" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-50IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-50IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="K44" s="159" t="s">
         <v>423</v>
       </c>
       <c r="L44" s="135" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>TEAMB07_ST_614_19_9.val</v>
       </c>
       <c r="M44" s="136" t="s">
@@ -17510,7 +17513,7 @@
         <v>31</v>
       </c>
       <c r="S44" s="138" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB07_ST_614_19_9.val</v>
       </c>
       <c r="T44" s="134" t="s">
@@ -17547,14 +17550,14 @@
         <v>27</v>
       </c>
       <c r="J45" s="221" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-50EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-50EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="K45" s="159" t="s">
         <v>425</v>
       </c>
       <c r="L45" s="135" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>TEAMB08_ST_614_19_10.val</v>
       </c>
       <c r="M45" s="136" t="s">
@@ -17572,7 +17575,7 @@
         <v>31</v>
       </c>
       <c r="S45" s="138" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB08_ST_614_19_10.val</v>
       </c>
       <c r="T45" s="134" t="s">
@@ -17607,8 +17610,8 @@
         <v>27</v>
       </c>
       <c r="J46" s="221" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-4550:AC-PT100-:MeanTemperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-4550:AC-PT100:MeanTemperature-Mon</v>
       </c>
       <c r="K46" s="159"/>
       <c r="L46" s="135" t="s">
@@ -17664,8 +17667,8 @@
         <v>27</v>
       </c>
       <c r="J47" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-51IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-51IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="K47" s="159" t="s">
         <v>411</v>
@@ -17689,7 +17692,7 @@
         <v>287</v>
       </c>
       <c r="S47" s="132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB01_ST_614_02_1.val</v>
       </c>
       <c r="T47" s="128" t="s">
@@ -17726,14 +17729,14 @@
         <v>27</v>
       </c>
       <c r="J48" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-52EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-52EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="K48" s="159" t="s">
         <v>413</v>
       </c>
       <c r="L48" s="129" t="str">
-        <f t="shared" ref="L48:L54" si="4">K48&amp;"_ST_614_"&amp;MID($B48,8,2)&amp;"_"&amp;IF(MID($B48,11,1)="0", MID($B48,12,1), MID($B48,11,2))&amp;".val"</f>
+        <f t="shared" ref="L48:L54" si="5">K48&amp;"_ST_614_"&amp;MID($B48,8,2)&amp;"_"&amp;IF(MID($B48,11,1)="0", MID($B48,12,1), MID($B48,11,2))&amp;".val"</f>
         <v>TEAMB02_ST_614_02_2.val</v>
       </c>
       <c r="M48" s="130" t="s">
@@ -17751,7 +17754,7 @@
         <v>31</v>
       </c>
       <c r="S48" s="132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB02_ST_614_02_2.val</v>
       </c>
       <c r="T48" s="128" t="s">
@@ -17788,14 +17791,14 @@
         <v>27</v>
       </c>
       <c r="J49" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-53IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-53IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="K49" s="159" t="s">
         <v>415</v>
       </c>
       <c r="L49" s="129" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>TEAMB03_ST_614_02_4.val</v>
       </c>
       <c r="M49" s="130" t="s">
@@ -17813,7 +17816,7 @@
         <v>31</v>
       </c>
       <c r="S49" s="132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB03_ST_614_02_4.val</v>
       </c>
       <c r="T49" s="128" t="s">
@@ -17850,14 +17853,14 @@
         <v>27</v>
       </c>
       <c r="J50" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-53EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-53EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="K50" s="159" t="s">
         <v>417</v>
       </c>
       <c r="L50" s="129" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>TEAMB04_ST_614_02_5.val</v>
       </c>
       <c r="M50" s="130" t="s">
@@ -17875,7 +17878,7 @@
         <v>31</v>
       </c>
       <c r="S50" s="132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB04_ST_614_02_5.val</v>
       </c>
       <c r="T50" s="128" t="s">
@@ -17912,14 +17915,14 @@
         <v>27</v>
       </c>
       <c r="J51" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-54IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-54IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="K51" s="159" t="s">
         <v>419</v>
       </c>
       <c r="L51" s="129" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>TEAMB05_ST_614_02_7.val</v>
       </c>
       <c r="M51" s="130" t="s">
@@ -17937,7 +17940,7 @@
         <v>31</v>
       </c>
       <c r="S51" s="132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB05_ST_614_02_7.val</v>
       </c>
       <c r="T51" s="128" t="s">
@@ -17974,14 +17977,14 @@
         <v>27</v>
       </c>
       <c r="J52" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-55EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-55EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="K52" s="159" t="s">
         <v>421</v>
       </c>
       <c r="L52" s="129" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>TEAMB06_ST_614_02_8.val</v>
       </c>
       <c r="M52" s="130" t="s">
@@ -17999,7 +18002,7 @@
         <v>31</v>
       </c>
       <c r="S52" s="132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB06_ST_614_02_8.val</v>
       </c>
       <c r="T52" s="128" t="s">
@@ -18036,14 +18039,14 @@
         <v>27</v>
       </c>
       <c r="J53" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-56IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-56IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="K53" s="159" t="s">
         <v>423</v>
       </c>
       <c r="L53" s="129" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>TEAMB07_ST_614_02_9.val</v>
       </c>
       <c r="M53" s="130" t="s">
@@ -18061,7 +18064,7 @@
         <v>31</v>
       </c>
       <c r="S53" s="132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB07_ST_614_02_9.val</v>
       </c>
       <c r="T53" s="128" t="s">
@@ -18098,14 +18101,14 @@
         <v>27</v>
       </c>
       <c r="J54" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-56EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-56EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="K54" s="189" t="s">
         <v>425</v>
       </c>
       <c r="L54" s="190" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>TEAMB08_ST_614_02_10.val</v>
       </c>
       <c r="M54" s="191" t="s">
@@ -18123,7 +18126,7 @@
         <v>31</v>
       </c>
       <c r="S54" s="194" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB08_ST_614_02_10.val</v>
       </c>
       <c r="T54" s="188" t="s">
@@ -18158,8 +18161,8 @@
         <v>27</v>
       </c>
       <c r="J55" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-5156:AC-PT101-:MeanTemperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-5156:AC-PT101:MeanTemperature-Mon</v>
       </c>
       <c r="K55" s="196"/>
       <c r="L55" s="197" t="s">
@@ -18197,8 +18200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1749B5E6-42A0-4EC2-B63B-2AAA50CDAECA}">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="L65" sqref="L65:L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -20606,8 +20609,8 @@
         <v>411</v>
       </c>
       <c r="L38" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-09IW:AC-PT100-:Temperature-Mon</v>
+        <f>IF(G38="-",C38&amp;"-"&amp;D38&amp;":"&amp;E38&amp;"-"&amp;F38&amp;":"&amp;H38&amp;"-"&amp;J38,C38&amp;"-"&amp;D38&amp;":"&amp;E38&amp;"-"&amp;F38&amp;G38&amp;":"&amp;H38&amp;"-"&amp;J38)</f>
+        <v>TU-09IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M38" s="151" t="s">
         <v>496</v>
@@ -20668,8 +20671,8 @@
         <v>413</v>
       </c>
       <c r="L39" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-10EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" ref="L39:L73" si="1">IF(G39="-",C39&amp;"-"&amp;D39&amp;":"&amp;E39&amp;"-"&amp;F39&amp;":"&amp;H39&amp;"-"&amp;J39,C39&amp;"-"&amp;D39&amp;":"&amp;E39&amp;"-"&amp;F39&amp;G39&amp;":"&amp;H39&amp;"-"&amp;J39)</f>
+        <v>TU-10EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M39" s="151" t="s">
         <v>498</v>
@@ -20689,7 +20692,7 @@
         <v>31</v>
       </c>
       <c r="T39" s="153" t="str">
-        <f t="shared" ref="T39:T72" si="1">M39</f>
+        <f t="shared" ref="T39:T72" si="2">M39</f>
         <v>TEAMB02_ST_614_08_2.val</v>
       </c>
       <c r="U39" s="150" t="s">
@@ -20730,8 +20733,8 @@
         <v>415</v>
       </c>
       <c r="L40" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-11IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-11IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M40" s="151" t="s">
         <v>500</v>
@@ -20751,7 +20754,7 @@
         <v>31</v>
       </c>
       <c r="T40" s="153" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB03_ST_614_08_4.val</v>
       </c>
       <c r="U40" s="150" t="s">
@@ -20792,8 +20795,8 @@
         <v>417</v>
       </c>
       <c r="L41" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-11EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-11EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M41" s="151" t="s">
         <v>502</v>
@@ -20813,7 +20816,7 @@
         <v>31</v>
       </c>
       <c r="T41" s="153" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB04_ST_614_08_5.val</v>
       </c>
       <c r="U41" s="150" t="s">
@@ -20854,8 +20857,8 @@
         <v>419</v>
       </c>
       <c r="L42" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-12IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-12IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M42" s="151" t="s">
         <v>504</v>
@@ -20875,7 +20878,7 @@
         <v>31</v>
       </c>
       <c r="T42" s="153" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB05_ST_614_08_7.val</v>
       </c>
       <c r="U42" s="150" t="s">
@@ -20916,8 +20919,8 @@
         <v>421</v>
       </c>
       <c r="L43" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-13EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-13EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M43" s="151" t="s">
         <v>506</v>
@@ -20937,7 +20940,7 @@
         <v>31</v>
       </c>
       <c r="T43" s="153" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB06_ST_614_08_8.val</v>
       </c>
       <c r="U43" s="150" t="s">
@@ -20978,8 +20981,8 @@
         <v>423</v>
       </c>
       <c r="L44" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-14IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-14IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M44" s="151" t="s">
         <v>508</v>
@@ -20999,7 +21002,7 @@
         <v>31</v>
       </c>
       <c r="T44" s="153" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB07_ST_614_08_9.val</v>
       </c>
       <c r="U44" s="150" t="s">
@@ -21040,8 +21043,8 @@
         <v>425</v>
       </c>
       <c r="L45" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-14EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-14EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M45" s="151" t="s">
         <v>510</v>
@@ -21061,7 +21064,7 @@
         <v>31</v>
       </c>
       <c r="T45" s="153" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB08_ST_614_08_10.val</v>
       </c>
       <c r="U45" s="150" t="s">
@@ -21098,8 +21101,8 @@
       </c>
       <c r="K46" s="150"/>
       <c r="L46" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-0914:AC-PT100-:MeanTemperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-0914:AC-PT100:MeanTemperature-Mon</v>
       </c>
       <c r="M46" s="151" t="s">
         <v>513</v>
@@ -21158,8 +21161,8 @@
         <v>411</v>
       </c>
       <c r="L47" s="221" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-15EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-15EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M47" s="135" t="s">
         <v>515</v>
@@ -21179,7 +21182,7 @@
         <v>31</v>
       </c>
       <c r="T47" s="177" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB01_ST_614_10_1.val</v>
       </c>
       <c r="U47" s="134" t="s">
@@ -21220,8 +21223,8 @@
         <v>413</v>
       </c>
       <c r="L48" s="221" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-16IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-16IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M48" s="135" t="s">
         <v>517</v>
@@ -21241,7 +21244,7 @@
         <v>31</v>
       </c>
       <c r="T48" s="177" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB02_ST_614_10_2.val</v>
       </c>
       <c r="U48" s="134" t="s">
@@ -21282,8 +21285,8 @@
         <v>415</v>
       </c>
       <c r="L49" s="221" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-17IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-17IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M49" s="135" t="s">
         <v>519</v>
@@ -21303,7 +21306,7 @@
         <v>31</v>
       </c>
       <c r="T49" s="177" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB03_ST_614_10_4.val</v>
       </c>
       <c r="U49" s="134" t="s">
@@ -21344,8 +21347,8 @@
         <v>417</v>
       </c>
       <c r="L50" s="221" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-17EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-17EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M50" s="135" t="s">
         <v>521</v>
@@ -21365,7 +21368,7 @@
         <v>31</v>
       </c>
       <c r="T50" s="177" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB04_ST_614_10_5.val</v>
       </c>
       <c r="U50" s="134" t="s">
@@ -21406,8 +21409,8 @@
         <v>419</v>
       </c>
       <c r="L51" s="221" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-18IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-18IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M51" s="135" t="s">
         <v>523</v>
@@ -21427,7 +21430,7 @@
         <v>31</v>
       </c>
       <c r="T51" s="177" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB05_ST_614_10_7.val</v>
       </c>
       <c r="U51" s="134" t="s">
@@ -21468,8 +21471,8 @@
         <v>421</v>
       </c>
       <c r="L52" s="221" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-19EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-19EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M52" s="135" t="s">
         <v>525</v>
@@ -21489,7 +21492,7 @@
         <v>31</v>
       </c>
       <c r="T52" s="177" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB06_ST_614_10_8.val</v>
       </c>
       <c r="U52" s="134" t="s">
@@ -21530,8 +21533,8 @@
         <v>423</v>
       </c>
       <c r="L53" s="221" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-20IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-20IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M53" s="135" t="s">
         <v>527</v>
@@ -21551,7 +21554,7 @@
         <v>31</v>
       </c>
       <c r="T53" s="177" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB07_ST_614_10_9.val</v>
       </c>
       <c r="U53" s="134" t="s">
@@ -21592,8 +21595,8 @@
         <v>425</v>
       </c>
       <c r="L54" s="221" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-20EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-20EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M54" s="135" t="s">
         <v>529</v>
@@ -21613,7 +21616,7 @@
         <v>31</v>
       </c>
       <c r="T54" s="177" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB08_ST_614_10_10.val</v>
       </c>
       <c r="U54" s="134" t="s">
@@ -21650,8 +21653,8 @@
       </c>
       <c r="K55" s="134"/>
       <c r="L55" s="221" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-1520:AC-PT100-:MeanTemperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-1520:AC-PT100:MeanTemperature-Mon</v>
       </c>
       <c r="M55" s="135" t="s">
         <v>531</v>
@@ -21710,8 +21713,8 @@
         <v>411</v>
       </c>
       <c r="L56" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-57IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-57IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M56" s="129" t="s">
         <v>533</v>
@@ -21731,7 +21734,7 @@
         <v>31</v>
       </c>
       <c r="T56" s="153" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB01_ST_614_04_1.val</v>
       </c>
       <c r="U56" s="128" t="s">
@@ -21772,8 +21775,8 @@
         <v>413</v>
       </c>
       <c r="L57" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-58EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-58EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M57" s="129" t="s">
         <v>535</v>
@@ -21793,7 +21796,7 @@
         <v>31</v>
       </c>
       <c r="T57" s="153" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB02_ST_614_04_2.val</v>
       </c>
       <c r="U57" s="128" t="s">
@@ -21834,8 +21837,8 @@
         <v>415</v>
       </c>
       <c r="L58" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-59IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-59IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M58" s="129" t="s">
         <v>537</v>
@@ -21855,7 +21858,7 @@
         <v>31</v>
       </c>
       <c r="T58" s="153" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB03_ST_614_04_4.val</v>
       </c>
       <c r="U58" s="128" t="s">
@@ -21896,8 +21899,8 @@
         <v>417</v>
       </c>
       <c r="L59" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-59EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-59EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M59" s="129" t="s">
         <v>539</v>
@@ -21917,7 +21920,7 @@
         <v>31</v>
       </c>
       <c r="T59" s="153" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB04_ST_614_04_5.val</v>
       </c>
       <c r="U59" s="128" t="s">
@@ -21958,8 +21961,8 @@
         <v>419</v>
       </c>
       <c r="L60" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-60IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-60IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M60" s="129" t="s">
         <v>541</v>
@@ -21979,7 +21982,7 @@
         <v>31</v>
       </c>
       <c r="T60" s="153" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB05_ST_614_04_7.val</v>
       </c>
       <c r="U60" s="128" t="s">
@@ -22020,8 +22023,8 @@
         <v>421</v>
       </c>
       <c r="L61" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-01EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-01EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M61" s="129" t="s">
         <v>543</v>
@@ -22041,7 +22044,7 @@
         <v>31</v>
       </c>
       <c r="T61" s="153" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB06_ST_614_04_8.val</v>
       </c>
       <c r="U61" s="128" t="s">
@@ -22082,8 +22085,8 @@
         <v>423</v>
       </c>
       <c r="L62" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-02IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-02IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M62" s="129" t="s">
         <v>545</v>
@@ -22103,7 +22106,7 @@
         <v>31</v>
       </c>
       <c r="T62" s="153" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB07_ST_614_04_9.val</v>
       </c>
       <c r="U62" s="128" t="s">
@@ -22144,8 +22147,8 @@
         <v>425</v>
       </c>
       <c r="L63" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-02EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-02EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M63" s="129" t="s">
         <v>547</v>
@@ -22165,7 +22168,7 @@
         <v>31</v>
       </c>
       <c r="T63" s="153" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB08_ST_614_04_10.val</v>
       </c>
       <c r="U63" s="128" t="s">
@@ -22202,8 +22205,8 @@
       </c>
       <c r="K64" s="128"/>
       <c r="L64" s="220" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-0160:AC-PT100-:MeanTemperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-0160:AC-PT100:MeanTemperature-Mon</v>
       </c>
       <c r="M64" s="129" t="s">
         <v>550</v>
@@ -22262,8 +22265,8 @@
         <v>411</v>
       </c>
       <c r="L65" s="221" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-03IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-03IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M65" s="135" t="s">
         <v>553</v>
@@ -22283,7 +22286,7 @@
         <v>31</v>
       </c>
       <c r="T65" s="177" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB01_ST_614_06_1.val</v>
       </c>
       <c r="U65" s="134" t="s">
@@ -22324,8 +22327,8 @@
         <v>413</v>
       </c>
       <c r="L66" s="221" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-04EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-04EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M66" s="135" t="s">
         <v>555</v>
@@ -22345,7 +22348,7 @@
         <v>31</v>
       </c>
       <c r="T66" s="177" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB02_ST_614_06_2.val</v>
       </c>
       <c r="U66" s="134" t="s">
@@ -22386,8 +22389,8 @@
         <v>415</v>
       </c>
       <c r="L67" s="221" t="str">
-        <f t="shared" ref="L67:L73" si="2">IF(G67="-",C67&amp;"-"&amp;D67&amp;":"&amp;E67&amp;"-"&amp;F67&amp;":"&amp;H67&amp;"-"&amp;J67,C67&amp;"-"&amp;D67&amp;":"&amp;E67&amp;"-"&amp;F67&amp;"-"&amp;G67&amp;":"&amp;H67&amp;"-"&amp;J67)</f>
-        <v>TU-05IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-05IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M67" s="135" t="s">
         <v>557</v>
@@ -22407,7 +22410,7 @@
         <v>31</v>
       </c>
       <c r="T67" s="177" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB03_ST_614_06_4.val</v>
       </c>
       <c r="U67" s="134" t="s">
@@ -22448,8 +22451,8 @@
         <v>417</v>
       </c>
       <c r="L68" s="221" t="str">
-        <f t="shared" si="2"/>
-        <v>TU-05EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-05EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M68" s="135" t="s">
         <v>559</v>
@@ -22469,7 +22472,7 @@
         <v>31</v>
       </c>
       <c r="T68" s="177" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB04_ST_614_06_5.val</v>
       </c>
       <c r="U68" s="134" t="s">
@@ -22510,8 +22513,8 @@
         <v>419</v>
       </c>
       <c r="L69" s="221" t="str">
-        <f t="shared" si="2"/>
-        <v>TU-06IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-06IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M69" s="135" t="s">
         <v>561</v>
@@ -22531,7 +22534,7 @@
         <v>31</v>
       </c>
       <c r="T69" s="177" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB05_ST_614_06_7.val</v>
       </c>
       <c r="U69" s="134" t="s">
@@ -22572,8 +22575,8 @@
         <v>421</v>
       </c>
       <c r="L70" s="221" t="str">
-        <f t="shared" si="2"/>
-        <v>TU-07EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-07EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M70" s="135" t="s">
         <v>563</v>
@@ -22593,7 +22596,7 @@
         <v>31</v>
       </c>
       <c r="T70" s="177" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB06_ST_614_06_8.val</v>
       </c>
       <c r="U70" s="134" t="s">
@@ -22634,8 +22637,8 @@
         <v>423</v>
       </c>
       <c r="L71" s="221" t="str">
-        <f t="shared" si="2"/>
-        <v>TU-08IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-08IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M71" s="135" t="s">
         <v>565</v>
@@ -22655,7 +22658,7 @@
         <v>31</v>
       </c>
       <c r="T71" s="177" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB07_ST_614_06_9.val</v>
       </c>
       <c r="U71" s="134" t="s">
@@ -22696,8 +22699,8 @@
         <v>425</v>
       </c>
       <c r="L72" s="221" t="str">
-        <f t="shared" si="2"/>
-        <v>TU-08EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-08EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="M72" s="135" t="s">
         <v>567</v>
@@ -22717,7 +22720,7 @@
         <v>31</v>
       </c>
       <c r="T72" s="177" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB08_ST_614_06_06.val</v>
       </c>
       <c r="U72" s="134" t="s">
@@ -22735,7 +22738,7 @@
       <c r="C73" s="180" t="s">
         <v>285</v>
       </c>
-      <c r="D73" s="234" t="s">
+      <c r="D73" s="232" t="s">
         <v>569</v>
       </c>
       <c r="E73" s="180" t="s">
@@ -22754,8 +22757,8 @@
       </c>
       <c r="K73" s="180"/>
       <c r="L73" s="221" t="str">
-        <f t="shared" si="2"/>
-        <v>TU-0308:AC-PT100-:MeanTemperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-0308:AC-PT100:MeanTemperature-Mon</v>
       </c>
       <c r="M73" s="181" t="s">
         <v>570</v>
@@ -22792,8 +22795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C5E429-E963-4A01-A471-5D4A1C2D01BD}">
   <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47:K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24633,8 +24636,8 @@
         <v>27</v>
       </c>
       <c r="K29" s="223" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-21IW:AC-PT100-:Temperature-Mon</v>
+        <f>IF(G29="-",C29&amp;"-"&amp;D29&amp;":"&amp;E29&amp;"-"&amp;F29&amp;":"&amp;H29&amp;"-"&amp;J29,C29&amp;"-"&amp;D29&amp;":"&amp;E29&amp;"-"&amp;F29&amp;G29&amp;":"&amp;H29&amp;"-"&amp;J29)</f>
+        <v>TU-21IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="L29" s="159" t="s">
         <v>411</v>
@@ -24696,14 +24699,14 @@
         <v>27</v>
       </c>
       <c r="K30" s="223" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-22EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" ref="K30:K37" si="1">IF(G30="-",C30&amp;"-"&amp;D30&amp;":"&amp;E30&amp;"-"&amp;F30&amp;":"&amp;H30&amp;"-"&amp;J30,C30&amp;"-"&amp;D30&amp;":"&amp;E30&amp;"-"&amp;F30&amp;G30&amp;":"&amp;H30&amp;"-"&amp;J30)</f>
+        <v>TU-22EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="L30" s="159" t="s">
         <v>413</v>
       </c>
       <c r="M30" s="129" t="str">
-        <f t="shared" ref="M30:M36" si="1">L30&amp;"_ST_614_"&amp;MID($B30,8,2)&amp;"_"&amp;IF(MID($B30,11,1)="0", MID($B30,12,1), MID($B30,11,2))&amp;".val"</f>
+        <f t="shared" ref="M30:M36" si="2">L30&amp;"_ST_614_"&amp;MID($B30,8,2)&amp;"_"&amp;IF(MID($B30,11,1)="0", MID($B30,12,1), MID($B30,11,2))&amp;".val"</f>
         <v>TEAMB02_ST_614_12_2.val</v>
       </c>
       <c r="N30" s="130" t="s">
@@ -24721,7 +24724,7 @@
         <v>31</v>
       </c>
       <c r="T30" s="132" t="str">
-        <f t="shared" ref="T30:T54" si="2">M30</f>
+        <f t="shared" ref="T30:T54" si="3">M30</f>
         <v>TEAMB02_ST_614_12_2.val</v>
       </c>
       <c r="U30" s="206" t="s">
@@ -24759,14 +24762,14 @@
         <v>27</v>
       </c>
       <c r="K31" s="223" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-23IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-23IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="L31" s="159" t="s">
         <v>415</v>
       </c>
       <c r="M31" s="129" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB03_ST_614_12_4.val</v>
       </c>
       <c r="N31" s="130" t="s">
@@ -24784,7 +24787,7 @@
         <v>31</v>
       </c>
       <c r="T31" s="132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB03_ST_614_12_4.val</v>
       </c>
       <c r="U31" s="206" t="s">
@@ -24822,14 +24825,14 @@
         <v>27</v>
       </c>
       <c r="K32" s="223" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-23EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-23EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="L32" s="159" t="s">
         <v>417</v>
       </c>
       <c r="M32" s="129" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB04_ST_614_12_5.val</v>
       </c>
       <c r="N32" s="130" t="s">
@@ -24847,7 +24850,7 @@
         <v>31</v>
       </c>
       <c r="T32" s="132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB04_ST_614_12_5.val</v>
       </c>
       <c r="U32" s="206" t="s">
@@ -24885,14 +24888,14 @@
         <v>27</v>
       </c>
       <c r="K33" s="223" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-24IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-24IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="L33" s="159" t="s">
         <v>419</v>
       </c>
       <c r="M33" s="129" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB05_ST_614_12_7.val</v>
       </c>
       <c r="N33" s="130" t="s">
@@ -24910,7 +24913,7 @@
         <v>31</v>
       </c>
       <c r="T33" s="132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB05_ST_614_12_7.val</v>
       </c>
       <c r="U33" s="206" t="s">
@@ -24948,14 +24951,14 @@
         <v>27</v>
       </c>
       <c r="K34" s="223" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-25EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-25EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="L34" s="159" t="s">
         <v>421</v>
       </c>
       <c r="M34" s="129" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB06_ST_614_12_8.val</v>
       </c>
       <c r="N34" s="130" t="s">
@@ -24973,7 +24976,7 @@
         <v>31</v>
       </c>
       <c r="T34" s="132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB06_ST_614_12_8.val</v>
       </c>
       <c r="U34" s="206" t="s">
@@ -25011,14 +25014,14 @@
         <v>27</v>
       </c>
       <c r="K35" s="223" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-26IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-26IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="L35" s="159" t="s">
         <v>423</v>
       </c>
       <c r="M35" s="129" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB07_ST_614_12_9.val</v>
       </c>
       <c r="N35" s="130" t="s">
@@ -25036,7 +25039,7 @@
         <v>31</v>
       </c>
       <c r="T35" s="132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB07_ST_614_12_9.val</v>
       </c>
       <c r="U35" s="206" t="s">
@@ -25074,14 +25077,14 @@
         <v>27</v>
       </c>
       <c r="K36" s="223" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-26EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-26EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="L36" s="159" t="s">
         <v>425</v>
       </c>
       <c r="M36" s="129" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TEAMB08_ST_614_12_10.val</v>
       </c>
       <c r="N36" s="130" t="s">
@@ -25099,7 +25102,7 @@
         <v>31</v>
       </c>
       <c r="T36" s="132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB08_ST_614_12_10.val</v>
       </c>
       <c r="U36" s="206" t="s">
@@ -25135,8 +25138,8 @@
         <v>27</v>
       </c>
       <c r="K37" s="223" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-2126:AC-PT100-:MeanTemperature-Mon</v>
+        <f t="shared" si="1"/>
+        <v>TU-2126:AC-PT100:MeanTemperature-Mon</v>
       </c>
       <c r="L37" s="159"/>
       <c r="M37" s="129" t="s">
@@ -25193,8 +25196,8 @@
         <v>27</v>
       </c>
       <c r="K38" s="224" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-27IW:AC-PT100-:Temperature-Mon</v>
+        <f>IF(G38="-",C38&amp;"-"&amp;D38&amp;":"&amp;E38&amp;"-"&amp;F38&amp;":"&amp;H38&amp;"-"&amp;J38,C38&amp;"-"&amp;D38&amp;":"&amp;E38&amp;"-"&amp;F38&amp;G38&amp;":"&amp;H38&amp;"-"&amp;J38)</f>
+        <v>TU-27IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="L38" s="160" t="s">
         <v>411</v>
@@ -25256,14 +25259,14 @@
         <v>27</v>
       </c>
       <c r="K39" s="224" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-28EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" ref="K39:K46" si="4">IF(G39="-",C39&amp;"-"&amp;D39&amp;":"&amp;E39&amp;"-"&amp;F39&amp;":"&amp;H39&amp;"-"&amp;J39,C39&amp;"-"&amp;D39&amp;":"&amp;E39&amp;"-"&amp;F39&amp;G39&amp;":"&amp;H39&amp;"-"&amp;J39)</f>
+        <v>TU-28EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="L39" s="160" t="s">
         <v>413</v>
       </c>
       <c r="M39" s="135" t="str">
-        <f t="shared" ref="M39:M45" si="3">L39&amp;"_ST_614_"&amp;MID($B39,8,2)&amp;"_"&amp;IF(MID($B39,11,1)="0", MID($B39,12,1), MID($B39,11,2))&amp;".val"</f>
+        <f t="shared" ref="M39:M45" si="5">L39&amp;"_ST_614_"&amp;MID($B39,8,2)&amp;"_"&amp;IF(MID($B39,11,1)="0", MID($B39,12,1), MID($B39,11,2))&amp;".val"</f>
         <v>TEAMB02_ST_614_14_2.val</v>
       </c>
       <c r="N39" s="136" t="s">
@@ -25319,14 +25322,14 @@
         <v>27</v>
       </c>
       <c r="K40" s="224" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-29IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="4"/>
+        <v>TU-29IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="L40" s="160" t="s">
         <v>415</v>
       </c>
       <c r="M40" s="135" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>TEAMB03_ST_614_14_4.val</v>
       </c>
       <c r="N40" s="136" t="s">
@@ -25382,14 +25385,14 @@
         <v>27</v>
       </c>
       <c r="K41" s="224" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-29EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="4"/>
+        <v>TU-29EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="L41" s="160" t="s">
         <v>417</v>
       </c>
       <c r="M41" s="135" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>TEAMB04_ST_614_14_5.val</v>
       </c>
       <c r="N41" s="136" t="s">
@@ -25445,14 +25448,14 @@
         <v>27</v>
       </c>
       <c r="K42" s="224" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-30IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="4"/>
+        <v>TU-30IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="L42" s="160" t="s">
         <v>419</v>
       </c>
       <c r="M42" s="135" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>TEAMB05_ST_614_14_7.val</v>
       </c>
       <c r="N42" s="136" t="s">
@@ -25508,14 +25511,14 @@
         <v>27</v>
       </c>
       <c r="K43" s="224" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-31EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="4"/>
+        <v>TU-31EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="L43" s="160" t="s">
         <v>421</v>
       </c>
       <c r="M43" s="135" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>TEAMB06_ST_614_14_8.val</v>
       </c>
       <c r="N43" s="136" t="s">
@@ -25571,14 +25574,14 @@
         <v>27</v>
       </c>
       <c r="K44" s="224" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-32IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="4"/>
+        <v>TU-32IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="L44" s="160" t="s">
         <v>423</v>
       </c>
       <c r="M44" s="135" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>TEAMB07_ST_614_14_9.val</v>
       </c>
       <c r="N44" s="136" t="s">
@@ -25634,14 +25637,14 @@
         <v>27</v>
       </c>
       <c r="K45" s="224" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-32EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="4"/>
+        <v>TU-32EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="L45" s="160" t="s">
         <v>425</v>
       </c>
       <c r="M45" s="135" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>TEAMB08_ST_614_14_10.val</v>
       </c>
       <c r="N45" s="136" t="s">
@@ -25695,8 +25698,8 @@
         <v>27</v>
       </c>
       <c r="K46" s="224" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-2732:AC-PT100-:MeanTemperature-Mon</v>
+        <f t="shared" si="4"/>
+        <v>TU-2732:AC-PT100:MeanTemperature-Mon</v>
       </c>
       <c r="L46" s="160"/>
       <c r="M46" s="135" t="s">
@@ -25753,8 +25756,8 @@
         <v>27</v>
       </c>
       <c r="K47" s="223" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-33IW:AC-PT100-:Temperature-Mon</v>
+        <f>IF(G47="-",C47&amp;"-"&amp;D47&amp;":"&amp;E47&amp;"-"&amp;F47&amp;":"&amp;H47&amp;"-"&amp;J47,C47&amp;"-"&amp;D47&amp;":"&amp;E47&amp;"-"&amp;F47&amp;G47&amp;":"&amp;H47&amp;"-"&amp;J47)</f>
+        <v>TU-33IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="L47" s="159" t="s">
         <v>411</v>
@@ -25778,7 +25781,7 @@
         <v>31</v>
       </c>
       <c r="T47" s="132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB01_ST_614_16_1.val</v>
       </c>
       <c r="U47" s="229" t="s">
@@ -25816,14 +25819,14 @@
         <v>27</v>
       </c>
       <c r="K48" s="223" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-34EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" ref="K48:K55" si="6">IF(G48="-",C48&amp;"-"&amp;D48&amp;":"&amp;E48&amp;"-"&amp;F48&amp;":"&amp;H48&amp;"-"&amp;J48,C48&amp;"-"&amp;D48&amp;":"&amp;E48&amp;"-"&amp;F48&amp;G48&amp;":"&amp;H48&amp;"-"&amp;J48)</f>
+        <v>TU-34EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="L48" s="159" t="s">
         <v>413</v>
       </c>
       <c r="M48" s="129" t="str">
-        <f t="shared" ref="M48:M54" si="4">L48&amp;"_ST_614_"&amp;MID($B48,8,2)&amp;"_"&amp;IF(MID($B48,11,1)="0", MID($B48,12,1), MID($B48,11,2))&amp;".val"</f>
+        <f t="shared" ref="M48:M54" si="7">L48&amp;"_ST_614_"&amp;MID($B48,8,2)&amp;"_"&amp;IF(MID($B48,11,1)="0", MID($B48,12,1), MID($B48,11,2))&amp;".val"</f>
         <v>TEAMB02_ST_614_16_2.val</v>
       </c>
       <c r="N48" s="130" t="s">
@@ -25841,7 +25844,7 @@
         <v>31</v>
       </c>
       <c r="T48" s="132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB02_ST_614_16_2.val</v>
       </c>
       <c r="U48" s="206" t="s">
@@ -25879,14 +25882,14 @@
         <v>27</v>
       </c>
       <c r="K49" s="223" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-35IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="6"/>
+        <v>TU-35IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="L49" s="159" t="s">
         <v>415</v>
       </c>
       <c r="M49" s="129" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>TEAMB03_ST_614_16_4.val</v>
       </c>
       <c r="N49" s="130" t="s">
@@ -25904,7 +25907,7 @@
         <v>31</v>
       </c>
       <c r="T49" s="132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB03_ST_614_16_4.val</v>
       </c>
       <c r="U49" s="206" t="s">
@@ -25942,14 +25945,14 @@
         <v>27</v>
       </c>
       <c r="K50" s="223" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-35EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="6"/>
+        <v>TU-35EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="L50" s="159" t="s">
         <v>417</v>
       </c>
       <c r="M50" s="129" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>TEAMB04_ST_614_16_5.val</v>
       </c>
       <c r="N50" s="130" t="s">
@@ -25967,7 +25970,7 @@
         <v>31</v>
       </c>
       <c r="T50" s="132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB04_ST_614_16_5.val</v>
       </c>
       <c r="U50" s="206" t="s">
@@ -26005,14 +26008,14 @@
         <v>27</v>
       </c>
       <c r="K51" s="223" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-36IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="6"/>
+        <v>TU-36IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="L51" s="159" t="s">
         <v>419</v>
       </c>
       <c r="M51" s="129" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>TEAMB05_ST_614_16_7.val</v>
       </c>
       <c r="N51" s="130" t="s">
@@ -26030,7 +26033,7 @@
         <v>31</v>
       </c>
       <c r="T51" s="132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB05_ST_614_16_7.val</v>
       </c>
       <c r="U51" s="206" t="s">
@@ -26068,14 +26071,14 @@
         <v>27</v>
       </c>
       <c r="K52" s="223" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-37EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="6"/>
+        <v>TU-37EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="L52" s="159" t="s">
         <v>421</v>
       </c>
       <c r="M52" s="129" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>TEAMB06_ST_614_16_8.val</v>
       </c>
       <c r="N52" s="130" t="s">
@@ -26093,7 +26096,7 @@
         <v>31</v>
       </c>
       <c r="T52" s="132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB06_ST_614_16_8.val</v>
       </c>
       <c r="U52" s="206" t="s">
@@ -26131,14 +26134,14 @@
         <v>27</v>
       </c>
       <c r="K53" s="223" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-38IW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="6"/>
+        <v>TU-38IW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="L53" s="159" t="s">
         <v>423</v>
       </c>
       <c r="M53" s="129" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>TEAMB07_ST_614_16_9.val</v>
       </c>
       <c r="N53" s="130" t="s">
@@ -26156,7 +26159,7 @@
         <v>31</v>
       </c>
       <c r="T53" s="132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB07_ST_614_16_9.val</v>
       </c>
       <c r="U53" s="206" t="s">
@@ -26194,14 +26197,14 @@
         <v>27</v>
       </c>
       <c r="K54" s="223" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-38EW:AC-PT100-:Temperature-Mon</v>
+        <f t="shared" si="6"/>
+        <v>TU-38EW:AC-PT100:Temperature-Mon</v>
       </c>
       <c r="L54" s="189" t="s">
         <v>425</v>
       </c>
       <c r="M54" s="190" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>TEAMB08_ST_614_16_10.val</v>
       </c>
       <c r="N54" s="191" t="s">
@@ -26219,7 +26222,7 @@
         <v>31</v>
       </c>
       <c r="T54" s="194" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TEAMB08_ST_614_16_10.val</v>
       </c>
       <c r="U54" s="211" t="s">
@@ -26255,8 +26258,8 @@
         <v>27</v>
       </c>
       <c r="K55" s="223" t="str">
-        <f t="shared" si="0"/>
-        <v>TU-3338:AC-PT100-:MeanTemperature-Mon</v>
+        <f t="shared" si="6"/>
+        <v>TU-3338:AC-PT100:MeanTemperature-Mon</v>
       </c>
       <c r="L55" s="196"/>
       <c r="M55" s="197" t="s">
@@ -26326,11 +26329,11 @@
       <c r="F1" s="45" t="s">
         <v>641</v>
       </c>
-      <c r="H1" s="233" t="s">
+      <c r="H1" s="234" t="s">
         <v>639</v>
       </c>
-      <c r="I1" s="233"/>
-      <c r="J1" s="232" t="s">
+      <c r="I1" s="234"/>
+      <c r="J1" s="233" t="s">
         <v>641</v>
       </c>
     </row>
@@ -26360,7 +26363,7 @@
       <c r="I2" s="45" t="s">
         <v>644</v>
       </c>
-      <c r="J2" s="232"/>
+      <c r="J2" s="233"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="45" t="str">
@@ -28275,34 +28278,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="ed202a06-a5fd-4989-ab35-516afb994abd">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="b2c2e3a4-82bc-4b14-ba75-76c6e4b67a60" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b2c2e3a4-82bc-4b14-ba75-76c6e4b67a60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ed202a06-a5fd-4989-ab35-516afb994abd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006F4FA476A4A600469C08194709EC5E9A" ma:contentTypeVersion="16" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="fd3d69f9800133fc7e273e7f140e322c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2c2e3a4-82bc-4b14-ba75-76c6e4b67a60" xmlns:ns3="ed202a06-a5fd-4989-ab35-516afb994abd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e9c683e6dadc058b32391737b115ac4" ns2:_="" ns3:_="">
     <xsd:import namespace="b2c2e3a4-82bc-4b14-ba75-76c6e4b67a60"/>
@@ -28545,8 +28520,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="ed202a06-a5fd-4989-ab35-516afb994abd">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="b2c2e3a4-82bc-4b14-ba75-76c6e4b67a60" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b2c2e3a4-82bc-4b14-ba75-76c6e4b67a60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ed202a06-a5fd-4989-ab35-516afb994abd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73AECD0-D97F-4072-8B5A-ACBE5E9143A8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37CAFCCB-79BC-46EE-B295-ED437D5AD1F9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28554,5 +28557,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37CAFCCB-79BC-46EE-B295-ED437D5AD1F9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73AECD0-D97F-4072-8B5A-ACBE5E9143A8}"/>
 </file>
--- a/etc/SiriusAmbTempPVs.xlsx
+++ b/etc/SiriusAmbTempPVs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cnpemcamp.sharepoint.com/sites/GrupoAutomaoeSoftware/Documentos Compartilhados/Estabilidade do Feixe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{542EFD48-8C51-4534-9C56-268DB7247726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F57DCF6B-221D-40BA-9321-E0AF799E71EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="3990" windowWidth="15375" windowHeight="8115" firstSheet="1" activeTab="2" xr2:uid="{CC45857C-43CA-4FE8-B43A-A3E2BD5298BB}"/>
+    <workbookView xWindow="4170" yWindow="3990" windowWidth="15375" windowHeight="8115" activeTab="1" xr2:uid="{CC45857C-43CA-4FE8-B43A-A3E2BD5298BB}"/>
   </bookViews>
   <sheets>
     <sheet name="plc1" sheetId="6" r:id="rId1"/>
@@ -2180,7 +2180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2692,13 +2692,46 @@
     <xf numFmtId="0" fontId="5" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2725,7 +2758,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3013,7 +3046,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3036,7 +3069,7 @@
   <dimension ref="A1:X73"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24:K25"/>
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3197,7 +3230,7 @@
         <v>35</v>
       </c>
       <c r="V2" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W2" s="74"/>
       <c r="X2" s="12" t="s">
@@ -3262,7 +3295,7 @@
         <v>35</v>
       </c>
       <c r="V3" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W3" s="21"/>
       <c r="X3" s="21"/>
@@ -3325,7 +3358,7 @@
         <v>35</v>
       </c>
       <c r="V4" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W4" s="21"/>
       <c r="X4" s="21"/>
@@ -3388,7 +3421,7 @@
         <v>35</v>
       </c>
       <c r="V5" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W5" s="21"/>
       <c r="X5" s="21"/>
@@ -3453,7 +3486,7 @@
         <v>35</v>
       </c>
       <c r="V6" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W6" s="21"/>
       <c r="X6" s="21"/>
@@ -3518,7 +3551,7 @@
         <v>35</v>
       </c>
       <c r="V7" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W7" s="21"/>
       <c r="X7" s="21"/>
@@ -3581,7 +3614,7 @@
         <v>35</v>
       </c>
       <c r="V8" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W8" s="21"/>
       <c r="X8" s="21"/>
@@ -3644,7 +3677,7 @@
         <v>35</v>
       </c>
       <c r="V9" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W9" s="21"/>
       <c r="X9" s="21"/>
@@ -3707,7 +3740,7 @@
         <v>35</v>
       </c>
       <c r="V10" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W10" s="21"/>
       <c r="X10" s="21"/>
@@ -3770,7 +3803,7 @@
         <v>35</v>
       </c>
       <c r="V11" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W11" s="21"/>
       <c r="X11" s="21"/>
@@ -3833,7 +3866,7 @@
         <v>35</v>
       </c>
       <c r="V12" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W12" s="21"/>
       <c r="X12" s="21"/>
@@ -3896,7 +3929,7 @@
         <v>35</v>
       </c>
       <c r="V13" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W13" s="21"/>
       <c r="X13" s="21"/>
@@ -3959,7 +3992,7 @@
         <v>35</v>
       </c>
       <c r="V14" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
@@ -4024,7 +4057,7 @@
         <v>35</v>
       </c>
       <c r="V15" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W15" s="21"/>
       <c r="X15" s="21"/>
@@ -4089,7 +4122,7 @@
         <v>35</v>
       </c>
       <c r="V16" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W16" s="21"/>
       <c r="X16" s="21"/>
@@ -4152,7 +4185,7 @@
         <v>35</v>
       </c>
       <c r="V17" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W17" s="21"/>
       <c r="X17" s="21"/>
@@ -4215,7 +4248,7 @@
         <v>35</v>
       </c>
       <c r="V18" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W18" s="21"/>
       <c r="X18" s="21"/>
@@ -4278,7 +4311,7 @@
         <v>35</v>
       </c>
       <c r="V19" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W19" s="21"/>
       <c r="X19" s="21"/>
@@ -4341,7 +4374,7 @@
         <v>35</v>
       </c>
       <c r="V20" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W20" s="21"/>
       <c r="X20" s="21"/>
@@ -4404,7 +4437,7 @@
         <v>35</v>
       </c>
       <c r="V21" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W21" s="21"/>
       <c r="X21" s="21"/>
@@ -4467,7 +4500,7 @@
         <v>35</v>
       </c>
       <c r="V22" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W22" s="21"/>
       <c r="X22" s="21"/>
@@ -4530,7 +4563,7 @@
         <v>35</v>
       </c>
       <c r="V23" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W23" s="21"/>
       <c r="X23" s="21"/>
@@ -4595,7 +4628,7 @@
         <v>35</v>
       </c>
       <c r="V24" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W24" s="21"/>
       <c r="X24" s="21"/>
@@ -4660,7 +4693,7 @@
         <v>35</v>
       </c>
       <c r="V25" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W25" s="21"/>
       <c r="X25" s="21"/>
@@ -4723,7 +4756,7 @@
         <v>35</v>
       </c>
       <c r="V26" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W26" s="21"/>
       <c r="X26" s="21"/>
@@ -4786,7 +4819,7 @@
         <v>35</v>
       </c>
       <c r="V27" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W27" s="21"/>
       <c r="X27" s="21"/>
@@ -4820,7 +4853,7 @@
       <c r="J28" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K28" s="173" t="str">
+      <c r="K28" s="171" t="str">
         <f>IF(G28="-",C28&amp;"-"&amp;D28&amp;":"&amp;E28&amp;"-"&amp;F28&amp;":"&amp;H28&amp;"-"&amp;J28,C28&amp;"-"&amp;D28&amp;":"&amp;E28&amp;"-"&amp;F28&amp;"-"&amp;G28&amp;":"&amp;H28&amp;"-"&amp;J28)</f>
         <v>UA-46Hall52:AC-PT100-FC61447:MeanTemperature-Mon</v>
       </c>
@@ -4849,7 +4882,7 @@
         <v>35</v>
       </c>
       <c r="V28" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W28" s="21"/>
       <c r="X28" s="21"/>
@@ -6597,8 +6630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1749B5E6-42A0-4EC2-B63B-2AAA50CDAECA}">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6614,8 +6647,8 @@
     <col min="9" max="9" width="5.5703125" style="13" customWidth="1"/>
     <col min="10" max="10" width="5.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.140625" style="13" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="47.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.140625" style="13" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="54.28515625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" style="13" customWidth="1"/>
     <col min="14" max="14" width="17.28515625" style="13" customWidth="1"/>
     <col min="15" max="15" width="10.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.140625" style="13" bestFit="1" customWidth="1"/>
@@ -6757,7 +6790,7 @@
         <v>35</v>
       </c>
       <c r="V2" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W2" s="21"/>
       <c r="X2" s="12" t="s">
@@ -6822,7 +6855,7 @@
         <v>35</v>
       </c>
       <c r="V3" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W3" s="21"/>
       <c r="X3" s="21"/>
@@ -6885,7 +6918,7 @@
         <v>35</v>
       </c>
       <c r="V4" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W4" s="21"/>
       <c r="X4" s="21"/>
@@ -6948,7 +6981,7 @@
         <v>35</v>
       </c>
       <c r="V5" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W5" s="21"/>
       <c r="X5" s="21"/>
@@ -7013,7 +7046,7 @@
         <v>35</v>
       </c>
       <c r="V6" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W6" s="21"/>
       <c r="X6" s="21"/>
@@ -7078,7 +7111,7 @@
         <v>35</v>
       </c>
       <c r="V7" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W7" s="21"/>
       <c r="X7" s="21"/>
@@ -7114,8 +7147,8 @@
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15" t="str">
-        <f>IF(G8="-",C8&amp;"-"&amp;D8&amp;":"&amp;E8&amp;"-"&amp;F8&amp;":"&amp;H8&amp;"-"&amp;J8,C8&amp;"-"&amp;D8&amp;":"&amp;E8&amp;"-"&amp;F8&amp;"-"&amp;G8&amp;":"&amp;H8&amp;"-"&amp;I8&amp;"-"&amp;J8)</f>
-        <v>UA-58DHall:AC-PT100-FC61406:Temperature--Mon</v>
+        <f>IF(G8="-",C8&amp;"-"&amp;D8&amp;":"&amp;E8&amp;"-"&amp;F8&amp;":"&amp;H8&amp;"-"&amp;J8,C8&amp;"-"&amp;D8&amp;":"&amp;E8&amp;"-"&amp;F8&amp;"-"&amp;G8&amp;":"&amp;H8&amp;"-"&amp;J8)</f>
+        <v>UA-58DHall:AC-PT100-FC61406:Temperature-Mon</v>
       </c>
       <c r="M8" s="18" t="s">
         <v>200</v>
@@ -7141,7 +7174,7 @@
         <v>35</v>
       </c>
       <c r="V8" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W8" s="21"/>
       <c r="X8" s="21"/>
@@ -7177,8 +7210,8 @@
       </c>
       <c r="K9" s="22"/>
       <c r="L9" s="15" t="str">
-        <f>IF(G9="-",C9&amp;"-"&amp;D9&amp;":"&amp;E9&amp;"-"&amp;F9&amp;":"&amp;H9&amp;"-"&amp;J9,C9&amp;"-"&amp;D9&amp;":"&amp;E9&amp;"-"&amp;F9&amp;"-"&amp;G9&amp;":"&amp;H9&amp;"-"&amp;I9&amp;"-"&amp;J9)</f>
-        <v>UA-01DHall:AC-PT100-FC61406:Temperature--Mon</v>
+        <f>IF(G9="-",C9&amp;"-"&amp;D9&amp;":"&amp;E9&amp;"-"&amp;F9&amp;":"&amp;H9&amp;"-"&amp;J9,C9&amp;"-"&amp;D9&amp;":"&amp;E9&amp;"-"&amp;F9&amp;"-"&amp;G9&amp;":"&amp;H9&amp;"-"&amp;J9)</f>
+        <v>UA-01DHall:AC-PT100-FC61406:Temperature-Mon</v>
       </c>
       <c r="M9" s="18" t="s">
         <v>203</v>
@@ -7204,7 +7237,7 @@
         <v>35</v>
       </c>
       <c r="V9" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W9" s="21"/>
       <c r="X9" s="21"/>
@@ -7267,7 +7300,7 @@
         <v>35</v>
       </c>
       <c r="V10" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W10" s="21"/>
       <c r="X10" s="21"/>
@@ -7329,8 +7362,8 @@
       <c r="U11" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="V11" s="67">
-        <v>2</v>
+      <c r="V11" s="66">
+        <v>1</v>
       </c>
       <c r="W11" s="21"/>
       <c r="X11" s="21"/>
@@ -7392,8 +7425,8 @@
       <c r="U12" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="V12" s="67">
-        <v>2</v>
+      <c r="V12" s="66">
+        <v>1</v>
       </c>
       <c r="W12" s="21"/>
       <c r="X12" s="21"/>
@@ -7455,8 +7488,8 @@
       <c r="U13" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="V13" s="67">
-        <v>2</v>
+      <c r="V13" s="66">
+        <v>1</v>
       </c>
       <c r="W13" s="21"/>
       <c r="X13" s="21"/>
@@ -7491,7 +7524,7 @@
         <v>29</v>
       </c>
       <c r="K14" s="27"/>
-      <c r="L14" s="27" t="str">
+      <c r="L14" s="184" t="str">
         <f t="shared" si="0"/>
         <v>UA-08CHall:AC-PT100-FC61411:Temperature-Mon</v>
       </c>
@@ -7518,8 +7551,8 @@
       <c r="U14" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="V14" s="67">
-        <v>2</v>
+      <c r="V14" s="66">
+        <v>1</v>
       </c>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
@@ -7583,8 +7616,8 @@
       <c r="U15" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="V15" s="67">
-        <v>2</v>
+      <c r="V15" s="66">
+        <v>1</v>
       </c>
       <c r="W15" s="21"/>
       <c r="X15" s="21"/>
@@ -7648,8 +7681,8 @@
       <c r="U16" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="V16" s="67">
-        <v>2</v>
+      <c r="V16" s="66">
+        <v>1</v>
       </c>
       <c r="W16" s="21"/>
       <c r="X16" s="21"/>
@@ -7711,8 +7744,8 @@
       <c r="U17" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="V17" s="67">
-        <v>2</v>
+      <c r="V17" s="66">
+        <v>1</v>
       </c>
       <c r="W17" s="21"/>
       <c r="X17" s="21"/>
@@ -7775,7 +7808,7 @@
         <v>35</v>
       </c>
       <c r="V18" s="67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W18" s="21"/>
       <c r="X18" s="21"/>
@@ -7838,7 +7871,7 @@
         <v>35</v>
       </c>
       <c r="V19" s="67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W19" s="21"/>
       <c r="X19" s="21"/>
@@ -7901,7 +7934,7 @@
         <v>35</v>
       </c>
       <c r="V20" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W20" s="21"/>
       <c r="X20" s="21"/>
@@ -7964,7 +7997,7 @@
         <v>35</v>
       </c>
       <c r="V21" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W21" s="21"/>
       <c r="X21" s="21"/>
@@ -8027,7 +8060,7 @@
         <v>35</v>
       </c>
       <c r="V22" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W22" s="21"/>
       <c r="X22" s="21"/>
@@ -8090,7 +8123,7 @@
         <v>35</v>
       </c>
       <c r="V23" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W23" s="21"/>
       <c r="X23" s="21"/>
@@ -8155,7 +8188,7 @@
         <v>35</v>
       </c>
       <c r="V24" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W24" s="21"/>
       <c r="X24" s="21"/>
@@ -8220,7 +8253,7 @@
         <v>35</v>
       </c>
       <c r="V25" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W25" s="21"/>
       <c r="X25" s="21"/>
@@ -8283,7 +8316,7 @@
         <v>35</v>
       </c>
       <c r="V26" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W26" s="21"/>
       <c r="X26" s="21"/>
@@ -8346,7 +8379,7 @@
         <v>35</v>
       </c>
       <c r="V27" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W27" s="21"/>
       <c r="X27" s="21"/>
@@ -8409,7 +8442,7 @@
         <v>35</v>
       </c>
       <c r="V28" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W28" s="21"/>
       <c r="X28" s="21"/>
@@ -8471,8 +8504,8 @@
       <c r="U29" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="V29" s="67">
-        <v>2</v>
+      <c r="V29" s="66">
+        <v>1</v>
       </c>
       <c r="W29" s="21"/>
       <c r="X29" s="21"/>
@@ -8534,8 +8567,8 @@
       <c r="U30" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="V30" s="67">
-        <v>2</v>
+      <c r="V30" s="66">
+        <v>1</v>
       </c>
       <c r="W30" s="21"/>
       <c r="X30" s="21"/>
@@ -8597,8 +8630,8 @@
       <c r="U31" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="V31" s="67">
-        <v>2</v>
+      <c r="V31" s="66">
+        <v>1</v>
       </c>
       <c r="W31" s="21"/>
       <c r="X31" s="21"/>
@@ -8660,8 +8693,8 @@
       <c r="U32" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="V32" s="67">
-        <v>2</v>
+      <c r="V32" s="66">
+        <v>1</v>
       </c>
       <c r="W32" s="21"/>
       <c r="X32" s="21"/>
@@ -8725,8 +8758,8 @@
       <c r="U33" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="V33" s="67">
-        <v>2</v>
+      <c r="V33" s="66">
+        <v>1</v>
       </c>
       <c r="W33" s="21"/>
       <c r="X33" s="21"/>
@@ -8790,8 +8823,8 @@
       <c r="U34" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="V34" s="67">
-        <v>2</v>
+      <c r="V34" s="66">
+        <v>1</v>
       </c>
       <c r="W34" s="21"/>
       <c r="X34" s="21"/>
@@ -8853,8 +8886,8 @@
       <c r="U35" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="V35" s="67">
-        <v>2</v>
+      <c r="V35" s="66">
+        <v>1</v>
       </c>
       <c r="W35" s="21"/>
       <c r="X35" s="21"/>
@@ -8917,7 +8950,7 @@
         <v>35</v>
       </c>
       <c r="V36" s="67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W36" s="21"/>
       <c r="X36" s="21"/>
@@ -8980,7 +9013,7 @@
         <v>35</v>
       </c>
       <c r="V37" s="67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W37" s="21"/>
       <c r="X37" s="21"/>
@@ -11207,8 +11240,8 @@
   </sheetPr>
   <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24:K25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -11366,7 +11399,7 @@
         <v>35</v>
       </c>
       <c r="V2" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W2" s="21"/>
       <c r="X2" s="12" t="s">
@@ -11431,7 +11464,7 @@
         <v>35</v>
       </c>
       <c r="V3" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W3" s="21"/>
       <c r="X3" s="21"/>
@@ -11494,7 +11527,7 @@
         <v>35</v>
       </c>
       <c r="V4" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W4" s="21"/>
       <c r="X4" s="21"/>
@@ -11557,7 +11590,7 @@
         <v>35</v>
       </c>
       <c r="V5" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W5" s="21"/>
       <c r="X5" s="21"/>
@@ -11622,75 +11655,75 @@
         <v>35</v>
       </c>
       <c r="V6" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W6" s="21"/>
       <c r="X6" s="21"/>
     </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="14">
+    <row r="7" spans="1:24" s="181" customFormat="1">
+      <c r="A7" s="171">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="171" t="s">
         <v>415</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="166" t="s">
+      <c r="D7" s="172" t="s">
         <v>276</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="15" t="s">
+      <c r="E7" s="171" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="173" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="171" t="s">
         <v>400</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="171">
         <v>2</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="15" t="str">
+      <c r="J7" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="171" t="str">
         <f>IF(G7="-",C7&amp;"-"&amp;D7&amp;":"&amp;E7&amp;"-"&amp;F7&amp;":"&amp;H7&amp;"-"&amp;J7,C7&amp;"-"&amp;D7&amp;":"&amp;E7&amp;"-"&amp;F7&amp;"-"&amp;G7&amp;":"&amp;H7&amp;"-"&amp;I7&amp;"-"&amp;J7)</f>
         <v>UA-19EHall:AC-PT100-FC61426:Temperature-2-Mon</v>
       </c>
-      <c r="L7" s="51"/>
-      <c r="M7" s="18" t="s">
+      <c r="L7" s="174"/>
+      <c r="M7" s="175" t="s">
         <v>416</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="N7" s="175" t="s">
         <v>414</v>
       </c>
-      <c r="O7" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="T7" s="15" t="s">
+      <c r="O7" s="172" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="171" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="176"/>
+      <c r="R7" s="176"/>
+      <c r="S7" s="177" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" s="171" t="s">
         <v>416</v>
       </c>
-      <c r="U7" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="V7" s="54">
-        <v>2</v>
-      </c>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
+      <c r="U7" s="178" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7" s="179">
+        <v>1</v>
+      </c>
+      <c r="W7" s="180"/>
+      <c r="X7" s="180"/>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="14">
@@ -11750,7 +11783,7 @@
         <v>35</v>
       </c>
       <c r="V8" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W8" s="21"/>
       <c r="X8" s="21"/>
@@ -11813,7 +11846,7 @@
         <v>35</v>
       </c>
       <c r="V9" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W9" s="21"/>
       <c r="X9" s="21"/>
@@ -11876,7 +11909,7 @@
         <v>35</v>
       </c>
       <c r="V10" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W10" s="21"/>
       <c r="X10" s="21"/>
@@ -11938,8 +11971,8 @@
       <c r="U11" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="V11" s="98">
-        <v>2</v>
+      <c r="V11" s="66">
+        <v>1</v>
       </c>
       <c r="W11" s="21"/>
       <c r="X11" s="21"/>
@@ -12001,8 +12034,8 @@
       <c r="U12" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="V12" s="98">
-        <v>2</v>
+      <c r="V12" s="66">
+        <v>1</v>
       </c>
       <c r="W12" s="21"/>
       <c r="X12" s="21"/>
@@ -12064,8 +12097,8 @@
       <c r="U13" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="V13" s="98">
-        <v>2</v>
+      <c r="V13" s="66">
+        <v>1</v>
       </c>
       <c r="W13" s="21"/>
       <c r="X13" s="21"/>
@@ -12127,8 +12160,8 @@
       <c r="U14" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="V14" s="98">
-        <v>2</v>
+      <c r="V14" s="66">
+        <v>1</v>
       </c>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
@@ -12192,8 +12225,8 @@
       <c r="U15" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="V15" s="98">
-        <v>2</v>
+      <c r="V15" s="66">
+        <v>1</v>
       </c>
       <c r="W15" s="21"/>
       <c r="X15" s="21"/>
@@ -12257,8 +12290,8 @@
       <c r="U16" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="V16" s="98">
-        <v>2</v>
+      <c r="V16" s="66">
+        <v>1</v>
       </c>
       <c r="W16" s="21"/>
       <c r="X16" s="21"/>
@@ -12320,8 +12353,8 @@
       <c r="U17" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="V17" s="98">
-        <v>2</v>
+      <c r="V17" s="66">
+        <v>1</v>
       </c>
       <c r="W17" s="21"/>
       <c r="X17" s="21"/>
@@ -12384,7 +12417,7 @@
         <v>35</v>
       </c>
       <c r="V18" s="98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W18" s="21"/>
       <c r="X18" s="21"/>
@@ -12447,7 +12480,7 @@
         <v>35</v>
       </c>
       <c r="V19" s="98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W19" s="21"/>
       <c r="X19" s="21"/>
@@ -12510,7 +12543,7 @@
         <v>35</v>
       </c>
       <c r="V20" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W20" s="21"/>
       <c r="X20" s="21"/>
@@ -12573,7 +12606,7 @@
         <v>35</v>
       </c>
       <c r="V21" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W21" s="21"/>
       <c r="X21" s="21"/>
@@ -12636,7 +12669,7 @@
         <v>35</v>
       </c>
       <c r="V22" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W22" s="21"/>
       <c r="X22" s="21"/>
@@ -12699,7 +12732,7 @@
         <v>35</v>
       </c>
       <c r="V23" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W23" s="21"/>
       <c r="X23" s="21"/>
@@ -12764,7 +12797,7 @@
         <v>35</v>
       </c>
       <c r="V24" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W24" s="21"/>
       <c r="X24" s="21"/>
@@ -12829,7 +12862,7 @@
         <v>35</v>
       </c>
       <c r="V25" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W25" s="21"/>
       <c r="X25" s="21"/>
@@ -12892,7 +12925,7 @@
         <v>35</v>
       </c>
       <c r="V26" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W26" s="21"/>
       <c r="X26" s="21"/>
@@ -12955,7 +12988,7 @@
         <v>35</v>
       </c>
       <c r="V27" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W27" s="21"/>
       <c r="X27" s="21"/>
@@ -13018,7 +13051,7 @@
         <v>35</v>
       </c>
       <c r="V28" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W28" s="55" t="s">
         <v>31</v>
@@ -14749,11 +14782,11 @@
       <c r="F1" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="H1" s="172" t="s">
+      <c r="H1" s="183" t="s">
         <v>538</v>
       </c>
-      <c r="I1" s="172"/>
-      <c r="J1" s="171" t="s">
+      <c r="I1" s="183"/>
+      <c r="J1" s="182" t="s">
         <v>540</v>
       </c>
     </row>
@@ -14783,7 +14816,7 @@
       <c r="I2" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="J2" s="171"/>
+      <c r="J2" s="182"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="str">
@@ -16698,6 +16731,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="ed202a06-a5fd-4989-ab35-516afb994abd">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="b2c2e3a4-82bc-4b14-ba75-76c6e4b67a60" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b2c2e3a4-82bc-4b14-ba75-76c6e4b67a60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ed202a06-a5fd-4989-ab35-516afb994abd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006F4FA476A4A600469C08194709EC5E9A" ma:contentTypeVersion="16" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="fd3d69f9800133fc7e273e7f140e322c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2c2e3a4-82bc-4b14-ba75-76c6e4b67a60" xmlns:ns3="ed202a06-a5fd-4989-ab35-516afb994abd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e9c683e6dadc058b32391737b115ac4" ns2:_="" ns3:_="">
     <xsd:import namespace="b2c2e3a4-82bc-4b14-ba75-76c6e4b67a60"/>
@@ -16940,36 +17001,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="ed202a06-a5fd-4989-ab35-516afb994abd">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="b2c2e3a4-82bc-4b14-ba75-76c6e4b67a60" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b2c2e3a4-82bc-4b14-ba75-76c6e4b67a60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ed202a06-a5fd-4989-ab35-516afb994abd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37CAFCCB-79BC-46EE-B295-ED437D5AD1F9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73AECD0-D97F-4072-8B5A-ACBE5E9143A8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16977,5 +17010,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73AECD0-D97F-4072-8B5A-ACBE5E9143A8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37CAFCCB-79BC-46EE-B295-ED437D5AD1F9}"/>
 </file>
--- a/etc/SiriusAmbTempPVs.xlsx
+++ b/etc/SiriusAmbTempPVs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cnpemcamp.sharepoint.com/sites/GrupoAutomaoeSoftware/Documentos Compartilhados/Estabilidade do Feixe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F57DCF6B-221D-40BA-9321-E0AF799E71EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5926D40D-DDD1-4DFB-9AB2-AA9705A4CFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="3990" windowWidth="15375" windowHeight="8115" activeTab="1" xr2:uid="{CC45857C-43CA-4FE8-B43A-A3E2BD5298BB}"/>
+    <workbookView xWindow="4170" yWindow="3990" windowWidth="15375" windowHeight="8115" firstSheet="1" xr2:uid="{CC45857C-43CA-4FE8-B43A-A3E2BD5298BB}"/>
   </bookViews>
   <sheets>
     <sheet name="plc1" sheetId="6" r:id="rId1"/>
@@ -680,7 +680,7 @@
     <t>FC-614-FC-614-06/07/08/09 média</t>
   </si>
   <si>
-    <t>58Hall04</t>
+    <t>55Hall02</t>
   </si>
   <si>
     <t>TIC1_614_03_1.PV</t>
@@ -2725,14 +2725,14 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3068,8 +3068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC98F7D-7F2B-4614-9245-C95CA7A32884}">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6630,8 +6630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1749B5E6-42A0-4EC2-B63B-2AAA50CDAECA}">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7274,7 +7274,7 @@
       <c r="K10" s="22"/>
       <c r="L10" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>UA-58Hall04:AC-PT100-FC61406:MeanTemperature-Mon</v>
+        <v>UA-55Hall02:AC-PT100-FC61406:MeanTemperature-Mon</v>
       </c>
       <c r="M10" s="18" t="s">
         <v>207</v>
@@ -7524,7 +7524,7 @@
         <v>29</v>
       </c>
       <c r="K14" s="27"/>
-      <c r="L14" s="184" t="str">
+      <c r="L14" s="182" t="str">
         <f t="shared" si="0"/>
         <v>UA-08CHall:AC-PT100-FC61411:Temperature-Mon</v>
       </c>
@@ -14782,11 +14782,11 @@
       <c r="F1" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="H1" s="183" t="s">
+      <c r="H1" s="184" t="s">
         <v>538</v>
       </c>
-      <c r="I1" s="183"/>
-      <c r="J1" s="182" t="s">
+      <c r="I1" s="184"/>
+      <c r="J1" s="183" t="s">
         <v>540</v>
       </c>
     </row>
@@ -14816,7 +14816,7 @@
       <c r="I2" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="J2" s="182"/>
+      <c r="J2" s="183"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="str">
@@ -16731,34 +16731,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="ed202a06-a5fd-4989-ab35-516afb994abd">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="b2c2e3a4-82bc-4b14-ba75-76c6e4b67a60" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b2c2e3a4-82bc-4b14-ba75-76c6e4b67a60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ed202a06-a5fd-4989-ab35-516afb994abd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006F4FA476A4A600469C08194709EC5E9A" ma:contentTypeVersion="16" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="fd3d69f9800133fc7e273e7f140e322c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2c2e3a4-82bc-4b14-ba75-76c6e4b67a60" xmlns:ns3="ed202a06-a5fd-4989-ab35-516afb994abd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e9c683e6dadc058b32391737b115ac4" ns2:_="" ns3:_="">
     <xsd:import namespace="b2c2e3a4-82bc-4b14-ba75-76c6e4b67a60"/>
@@ -17001,8 +16973,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="ed202a06-a5fd-4989-ab35-516afb994abd">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="b2c2e3a4-82bc-4b14-ba75-76c6e4b67a60" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b2c2e3a4-82bc-4b14-ba75-76c6e4b67a60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ed202a06-a5fd-4989-ab35-516afb994abd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73AECD0-D97F-4072-8B5A-ACBE5E9143A8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37CAFCCB-79BC-46EE-B295-ED437D5AD1F9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17010,5 +17010,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37CAFCCB-79BC-46EE-B295-ED437D5AD1F9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73AECD0-D97F-4072-8B5A-ACBE5E9143A8}"/>
 </file>